--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516CCD4D-5786-4F94-8F2C-F7FA0F5A57EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6696F542-F574-4836-9970-15CD8B2C0378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,13 +42,216 @@
     <t>C105品書き</t>
   </si>
   <si>
-    <t>冬コミの品書きです：
+    <t>2024-12-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">冬コミの品書きです：
 &lt;img src='/announcement/c105_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-品書きのツイートは&lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;こちら&lt;/a&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-12-22</t>
+品書きのツイートは&lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;こちら&lt;/a&gt;。
+今回の数はそれなりに用意してるので、来る予定のある方はたぶん急がなくても大丈夫です。
+現地来れない方は通販でも買えます：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・イラスト本は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;にて
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・アクリルグッズは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105頒布物のご紹介</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">冬コミに頒布する予定のグッズは画像通りの５点になります：
+&lt;img src='/announcement/c105_goods.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+詳細の紹介記事は&lt;a href='https://apricotlemontea.fanbox.cc/posts/9035741' target='_blank' style='color: #3987ff'&gt;FANBOX&lt;/a&gt;をご覧ください。
+通販の予約注文も受け付けております：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・イラスト本は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;にて
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・アクリルグッズは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて
+よろしくお願いします。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105当選しました</t>
+  </si>
+  <si>
+    <r>
+      <t>「◎貴方のサークル「杏仁茶館」は、日曜日 東地区 “Ｊ”ブロック－51aに配置されました。」
+&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+クリックで&lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt;Webカタログ&lt;/a&gt;に移動します。
+というわけで冬コミ出ます、原稿をやるため当サイトの機能更新はしばらくゆっくりめになります。
+お知らせ内容などは随時更新します。
+よろしくお願いします。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-11-08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +273,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -392,15 +602,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
@@ -417,26 +627,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="99" customHeight="1">
+    <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" ht="80.400000000000006" customHeight="1">
+    <row r="3" spans="1:3" ht="134.4" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6696F542-F574-4836-9970-15CD8B2C0378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA17D9-7774-4BE5-8124-A2868A9593C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JP" sheetId="1" r:id="rId1"/>
+    <sheet name="日本語" sheetId="1" r:id="rId1"/>
+    <sheet name="中文" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +27,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C105品書き</t>
   </si>
   <si>
     <t>2024-12-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -95,7 +97,7 @@
       </rPr>
       <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C105頒布物のご紹介</t>
@@ -190,11 +192,11 @@
       </rPr>
       <t>´)b</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2024-12-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C105当選しました</t>
@@ -248,24 +250,518 @@
       </rPr>
       <t>´)b</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2024-11-08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105品書き(?)</t>
+  </si>
+  <si>
+    <t>C105贩售物品介绍</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C105上贩售的物品如照片所示共五种：
+&lt;img src='/announcement/c105_goods.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+详细介绍请移步&lt;a href='https://apricotlemontea.fanbox.cc/posts/9035741' target='_blank' style='color: #3987ff'&gt;FANBOX&lt;/a&gt;（只写了日语不好意思）
+也可以在网购平台上下单：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・画册在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・亚克力小玩意在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+记得到时来玩。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105出摊</t>
+  </si>
+  <si>
+    <r>
+      <t>点击跳转到&lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt; Web Catalog &lt;/a&gt;
+&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+要去C105出摊了。因为之后主要在画稿，所以本站的新功能开发会暂时缓一缓。
+通知的内容会随时更新。
+欢迎到时来玩。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">品書き这个词的中文叫啥来着…？
+&lt;img src='/announcement/c105_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+点击跳转到&lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;推文&lt;/a&gt;。
+这次印的数量比较多，应该不会像上次那样那么早就卖完了。
+现地来不了的xd也可以在网上买：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・画册在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>克力小玩意在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105 menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the C105 menu：
+&lt;img src='/announcement/c105_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Click here to see the &lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;tweet&lt;/a&gt;
+I printed a lot this time so it may not been sold out too early.
+If you can't come, you can also buy these on online shop：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The illust books are on &lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The acrylic goods are on &lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105 goods introduction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The goods which will be sold at C105 are as below：
+&lt;img src='/announcement/c105_goods.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Here's a more detailed introduction on &lt;a href='https://apricotlemontea.fanbox.cc/posts/9035741' target='_blank' style='color: #3987ff'&gt;FANBOX&lt;/a&gt;（only wrote in Japanese, sorry）
+You can also buy these on online shop：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The illust books are on &lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The acrylic goods are on &lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected for Winter Comiket(C105)</t>
+  </si>
+  <si>
+    <r>
+      <t>Click here to see &lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt; Web Catalog &lt;/a&gt;
+&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+So, I'll attend Winter Comiket. Due to working on the manuscript, updates to the site's features will slow down for a while.
+Announcements and updates will be posted as needed.
+Thanks for your understanding. (｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -280,6 +776,13 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -604,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -661,7 +1164,139 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="134.4" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA17D9-7774-4BE5-8124-A2868A9593C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38C8C5-CFAD-44A5-B981-2E48E9E61711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1108,7 +1108,8 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1174,7 +1175,8 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1240,7 +1242,8 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A38C8C5-CFAD-44A5-B981-2E48E9E61711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8B484-E7E8-4906-8144-5CB95949518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -743,12 +743,32 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>あけましておめでとうございます</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src='/announcement/2025.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy New Year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +804,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -811,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,6 +858,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,19 +1145,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1132,35 +1172,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="134.4" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.2" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1172,19 +1223,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1199,35 +1250,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="134.4" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.2" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1239,19 +1301,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1266,35 +1328,46 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="124.2" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A8B484-E7E8-4906-8144-5CB95949518E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E2FB89-CF92-464C-A37C-01CC965E1E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -763,12 +763,216 @@
     <t>Happy New Year</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>新春セール</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Festival Sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">旧正月をお祝いして通販にあるグッズと本をセールします！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105冬コミのアクリルグッズ三種が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
+　セール期間は&lt;span style="font-weight: bold;"&gt;1月29日(水) 10:00～2月12日(水) 23:59&lt;/span&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;：
+　C104夏コミの本が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
+　セール期間は&lt;span style="font-weight: bold;"&gt;2月7日(金) 16:00～02月24日(月) 23:59&lt;/span&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">春节快乐！降价打折！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105的亚克力小玩意&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
+　折扣期间：&lt;span style="font-weight: bold;"&gt;1月29日(初一) 10:00～2月12日(十五) 23:59&lt;/span&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;MelonBooks&lt;/a&gt;：
+　C104的画册&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
+　折扣期间：&lt;span style="font-weight: bold;"&gt;2月7日(周五) 16:00～02月24日(周一) 23:59&lt;/span&gt;
+所有时间均为日本时间（GMT+9）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Happy Lunar New Year! Here's a sale to celebrate the Spring Festival.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105 acrylic goods on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
+　Sales period：&lt;span style="font-weight: bold;"&gt;1.29(初一) 10:00～2.12(十五) 23:59&lt;/span&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;MelonBooks&lt;/a&gt;：
+　C104 illust book on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
+　Sales period：&lt;span style="font-weight: bold;"&gt;2.7(Fri.) 16:00～2.24(Mon.) 23:59&lt;/span&gt;
+All times are in Japan Standard Time (GMT+9).</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节促销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,6 +1022,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -845,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -863,6 +1081,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,19 +1366,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1173,45 +1394,56 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="134.4" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1223,19 +1455,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1250,46 +1482,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="134.4" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1301,19 +1544,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1328,46 +1571,57 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0410F5-ECCB-4A7A-B76C-CF7412260016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACFDB07-9349-4E55-BD48-C51050B5D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,58 +269,6 @@
   </si>
   <si>
     <r>
-      <t>旧正月をお祝いして通販にあるグッズと本をセールします！
-&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-　C105冬コミのアクリルグッズ三種が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
-　セール期間は&lt;span style="font-weight: bold;"&gt;1月29日(水) 10:00～2月12日(水) 23:59&lt;/span&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;：&lt;/li&gt;
-　C104夏コミの本が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
-　セール期間は&lt;span style="font-weight: bold;"&gt;2月7日(金) 16:00～02月24日(月) 23:59&lt;/span&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">冬コミに頒布する予定のグッズは画像通りの５点になります：
 &lt;img src='/announcement/c105_goods.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 詳細の紹介記事は&lt;a href='https://apricotlemontea.fanbox.cc/posts/9035741' target='_blank' style='color: #3987ff'&gt;FANBOX&lt;/a&gt;をご覧ください。
@@ -874,6 +822,58 @@
         <scheme val="minor"/>
       </rPr>
       <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>旧正月をお祝いして通販にあるグッズと本をセールします！
+&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105冬コミのアクリルグッズ三種が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
+　セール期間は&lt;span style="font-weight: bold;"&gt;1月29日(初一) 10:00～2月12日(十五) 23:59&lt;/span&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;：&lt;/li&gt;
+　C104夏コミの本が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
+　セール期間は&lt;span style="font-weight: bold;"&gt;2月7日(金) 16:00～02月24日(月) 23:59&lt;/span&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1280,7 +1280,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -1307,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1329,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1418,7 +1418,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1429,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -1485,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1507,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1518,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACFDB07-9349-4E55-BD48-C51050B5D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C514137C-2C65-44AE-89A0-BDE7A643EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -403,79 +403,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">春节快乐！降价打折！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>li&gt;&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-　C105的亚克力小玩意&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
-　折扣期间：&lt;span style="font-weight: bold;"&gt;1月29日(初一) 10:00～2月12日(十五) 23:59&lt;/span&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;MelonBooks&lt;/a&gt;：&lt;/li&gt;
-　C104的画册&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
-　折扣期间：&lt;span style="font-weight: bold;"&gt;2月7日(周五) 16:00～02月24日(周一) 23:59&lt;/span&gt;
-所有时间均为日本时间（GMT+9）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">品書き这个词的中文叫啥来着…？
 &lt;img src='/announcement/c105_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 点击跳转到&lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;推文&lt;/a&gt;。
@@ -640,79 +567,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Happy Lunar New Year! Here's a sale to celebrate the Spring Festival.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>li&gt;&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-　C105 acrylic goods on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
-　Sales period：&lt;span style="font-weight: bold;"&gt;1.29(初一) 10:00～2.12(十五) 23:59&lt;/span&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;MelonBooks&lt;/a&gt;：&lt;/li&gt;
-　C104 illust book on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
-　Sales period：&lt;span style="font-weight: bold;"&gt;2.7(Fri.) 16:00～2.24(Mon.) 23:59&lt;/span&gt;
-All times are in Japan Standard Time (GMT+9).</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Here's the C105 menu：
 &lt;img src='/announcement/c105_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 Click here to see the &lt;a href='https://x.com/ApricotLemonTea/status/1870559541634764935' target='_blank' style='color: #3987ff'&gt;tweet&lt;/a&gt;
@@ -838,7 +692,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
+      <t>&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff; font-weight: bold'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
     </r>
     <r>
       <rPr>
@@ -850,7 +704,7 @@
       </rPr>
       <t xml:space="preserve">
 　C105冬コミのアクリルグッズ三種が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
-　セール期間は&lt;span style="font-weight: bold;"&gt;1月29日(初一) 10:00～2月12日(十五) 23:59&lt;/span&gt;
+　セール期間は1月29日(初一) 10:00～2月12日(十五) 23:59
 </t>
     </r>
     <r>
@@ -871,9 +725,155 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;：&lt;/li&gt;
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff; font-weight: bold'&gt;メロンブックス&lt;/a&gt;：&lt;/li&gt;
 　C104夏コミの本が&lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;します。
-　セール期間は&lt;span style="font-weight: bold;"&gt;2月7日(金) 16:00～02月24日(月) 23:59&lt;/span&gt;</t>
+　セール期間は2月7日(金) 16:00～02月24日(月) 23:59</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">春节快乐！降价打折！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li&gt;&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff; font-weight: bold'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105的亚克力小玩意&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
+　折扣期间：1月29日(初一) 10:00～2月12日(十五) 23:59
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff; font-weight: bold'&gt;MelonBooks&lt;/a&gt;：&lt;/li&gt;
+　C104的画册&lt;span style="font-weight: bold;"&gt;打五折&lt;/span&gt;。
+　折扣期间：2月7日(周五) 16:00～02月24日(周一) 23:59
+所有时间均为日本时间（GMT+9）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Happy Lunar New Year! Here's a sale to celebrate the Spring Festival.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li&gt;&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff; font-weight: bold'&gt;BOOTH&lt;/a&gt;：&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　C105 acrylic goods on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
+　Sales period：1.29(初一) 10:00～2.12(十五) 23:59
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;a href='https://www.melonbooks.co.jp/circle/index.php?circle_id=129456' target='_blank' style='color: #3987ff; font-weight: bold'&gt;MelonBooks&lt;/a&gt;：&lt;/li&gt;
+　C104 illust book on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
+　Sales period：2.7(Fri.) 16:00～2.24(Mon.) 23:59
+All times are in Japan Standard Time (GMT+9).</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1280,15 +1280,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1307,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="134.4" customHeight="1">
+    <row r="5" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+    <row r="6" spans="1:3" ht="124.15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1369,15 +1369,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1396,7 +1396,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1418,24 +1418,24 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="134.4" customHeight="1">
+    <row r="5" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+    <row r="6" spans="1:3" ht="124.15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1458,15 +1458,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -1485,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -1507,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1518,13 +1518,13 @@
         <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="124.2" customHeight="1">
+    <row r="6" spans="1:3" ht="124.15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C514137C-2C65-44AE-89A0-BDE7A643EEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA787B-E818-4E01-9BDC-B707F710335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -874,6 +874,127 @@
 　C104 illust book on &lt;span style="font-weight: bold;"&gt;50% OFF&lt;/span&gt;。
 　Sales period：2.7(Fri.) 16:00～2.24(Mon.) 23:59
 All times are in Japan Standard Time (GMT+9).</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なりすましが出た</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有狗假冒我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p style='font-weight: bold'&gt;※このホームページからのリンクはすべて本物です&lt;/p&gt;
+&lt;p style='font-weight: bold'&gt;（ハッキングとかされてない限り）&lt;/p&gt;
+&lt;br&gt;
+まさか自分にもなりすましが出てくるとは…何の得ある？？
+なりすましのツイッターID: @egntm178769
+&lt;img src='/announcement/pseudo.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;
+しかも自分のアイコンと名前をしてて自分の絵をリツイートしてきた、通知欄見てて一瞬バグかと思ったｗ
+とりあえず通報した。もしなにか連絡がある場合は本物かどうかを確認してください。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p style='font-weight: bold'&gt;※这个主页里面挂的链接可以确信都是本人&lt;/p&gt;
+&lt;p style='font-weight: bold'&gt;（前提是网站没被黑）&lt;/p&gt;
+&lt;br&gt;
+没想到居然还会有狗来假冒我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>…有什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好处吗？？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+假冒狗的推特ID: @egntm178769
+&lt;img src='/announcement/pseudo.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;
+然后还顶着我的头像跟我的名字来转推我的画…我一看通知还以为出bug了（
+举报肯定是举报了。也麻烦各位在进行各种操作之前先确认一下是不是本人。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caution: Impersonation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p style='font-weight: bold'&gt;※Links from this homepage are mine&lt;/p&gt;
+&lt;p style='font-weight: bold'&gt;（As long as this homepage is not hacked）&lt;/p&gt;
+&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>What benefits them by impersonating me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Impersonator's twitter ID: @egntm178769
+&lt;img src='/announcement/pseudo.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1276,7 +1397,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1303,235 +1624,68 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
+      <c r="A2" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBA787B-E818-4E01-9BDC-B707F710335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F26B6-B807-45FC-896C-5A291F1B1CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,21 +41,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C105品書き</t>
-  </si>
-  <si>
     <t>2024-12-22</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C105頒布物のご紹介</t>
-  </si>
-  <si>
     <t>2024-12-14</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C105当選しました</t>
   </si>
   <si>
     <r>
@@ -113,15 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C105品書き(?)</t>
-  </si>
-  <si>
-    <t>C105贩售物品介绍</t>
-  </si>
-  <si>
-    <t>C105出摊</t>
-  </si>
-  <si>
     <r>
       <t>点击跳转到&lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt; Web Catalog &lt;/a&gt;
 &lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
@@ -170,16 +152,6 @@
       <t>´)b</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C105 menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C105 goods introduction</t>
-  </si>
-  <si>
-    <t>Selected for Winter Comiket(C105)</t>
   </si>
   <si>
     <r>
@@ -890,8 +862,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Caution: Impersonation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C107冬コミに申し込んだ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applied for Winter Comiket (C107)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be Selected for Winter Comiket (C105)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105冬コミ当選しました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105冬コミ頒布物のご紹介</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C105冬コミ品書き</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬CM（C105）出摊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬CM（C105）贩售物品介绍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬CM（C105）品書き(?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提交了冬CM（C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出摊申请</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winter Comiket (C105) goods introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winter Comiket (C105) menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;p style='font-weight: bold'&gt;※このホームページからのリンクはすべて本物です&lt;/p&gt;
-&lt;p style='font-weight: bold'&gt;（ハッキングとかされてない限り）&lt;/p&gt;
 &lt;br&gt;
 まさか自分にもなりすましが出てくるとは…何の得ある？？
 なりすましのツイッターID: @egntm178769
@@ -903,7 +962,6 @@
   <si>
     <r>
       <t>&lt;p style='font-weight: bold'&gt;※这个主页里面挂的链接可以确信都是本人&lt;/p&gt;
-&lt;p style='font-weight: bold'&gt;（前提是网站没被黑）&lt;/p&gt;
 &lt;br&gt;
 没想到居然还会有狗来假冒我</t>
     </r>
@@ -944,13 +1002,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Caution: Impersonation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">&lt;p style='font-weight: bold'&gt;※Links from this homepage are mine&lt;/p&gt;
-&lt;p style='font-weight: bold'&gt;（As long as this homepage is not hacked）&lt;/p&gt;
 &lt;br&gt;
 </t>
     </r>
@@ -996,6 +1049,24 @@
 Impersonator's twitter ID: @egntm178769
 &lt;img src='/announcement/pseudo.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
+アクスタとかも作るかもしれません、受かったらまた考えます。_(:3」∠)_
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次不画玛丽，画的是狂猎的学生，望周知。
+除了插画本之外应该还会做立牌之类的周边，等抽中出摊了再说。_(:3」∠)_
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
+There may be also some goods like acryl stands, consider it if I were selected. _(:3」∠)_
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,7 +1074,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1135,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1397,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1425,68 +1503,79 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1497,11 +1586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1525,68 +1614,79 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1597,11 +1697,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1624,69 +1724,80 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>41</v>
+      <c r="A2" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="8" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F26B6-B807-45FC-896C-5A291F1B1CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1FE44E-A7CE-4E02-A954-8BB4D3BCB35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1067,6 +1067,378 @@
     <t>Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
 There may be also some goods like acryl stands, consider it if I were selected. _(:3」∠)_
 &lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホームページ公開一周年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-11-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页公开一周年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Page Release 1st Anniversary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>興味本位と勢いで作ったこのホームページが一年も経ってしまいました。
+なんか毎日数十人くらい見に来ていただいてほんとにありがとうございます。
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+余談ですが、訪問者数集計用のCloudflareは過去一年間分のデータしか遡れないらしくて、今まで増え続けてた経験値（総訪問者数）が増えたり減ったりするようになるかもしれません。
+そのため経験値とレベルの計算方法を変更しました。新しい計算方法は以下になります：
+&lt;p style='padding-left: 1vw'&gt;レベル：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;固定で？？になります（ほかに何かいいアイデアがあれば遠慮なく教えください）&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;経験値：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99未満の場合：本日の訪問者数 / 99&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：過去一年間の総訪問者数 / MAX&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当时一时兴起觉得好玩就整了这么个主页，居然都过去一年了。
+现在每天都还有几十个人来访问，实在是感激不尽。
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+然后现在有个问题，现在统计网站访问量用的Cloudflare似乎只能查过去一年的数据，所以这个经验值（总访问量）之后可能会变得有增有减的。
+于是我修改了一下经验值和等级的计算方法，如下所示：
+&lt;p style='padding-left: 1vw'&gt;等级：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;现在固定变成？？（有什么其他好的建议也可以告诉我）&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;经验值：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;今日访问量小于99的时候：今日访问量 / 99&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p style='padding-left: 2vw'&gt;今日访问量大于等于99的时候：过去一年的总访问量 / MAX&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>When I first made this homepage, it was just on a whim because I thought it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d be fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd somehow, a whole year has already gone by.
+Even now, there are still dozens of people visiting every day, and I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m truly grateful for that.
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+Now, there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s one small issue: the site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s access statistics are powered by Cloudflare, which only keeps data for the past year.
+Because of that, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xperience Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (total visits) might start to fluctuate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes increasing, sometimes decreasing.
+So I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ve adjusted how Experience Points and Level are calculated, as follows:
+&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;Now fixed as ?? (feel free to share any better ideas)&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;Experience points:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits are below 99: today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits / 99&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits are 99 or more: total visits in the past year / MAX&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1193,6 +1565,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1503,78 +1878,89 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1586,11 +1972,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1613,79 +1999,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
+      <c r="A2" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1697,16 +2094,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="2"/>
@@ -1724,79 +2121,90 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1FE44E-A7CE-4E02-A954-8BB4D3BCB35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1218521-9D69-4A3E-B14F-0C973E3B8EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,313 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：過去一年間の総訪問者数 / MAX&lt;/p&gt;</t>
+      <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：本日の訪問者数 / 過去一年間の総訪問者数&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>When I first made this homepage, it was just on a whim because I thought it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d be fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd somehow, a whole year has already gone by.
+Even now, there are still dozens of people visiting every day, and I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m truly grateful for that.
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+Now, there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s one small issue: the site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s access statistics are powered by Cloudflare, which only keeps data for the past year.
+Because of that, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xperience Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (total visits) might start to fluctuate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes increasing, sometimes decreasing.
+So I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ve adjusted how Experience Points and Level are calculated, as follows:
+&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;Now fixed as ?? (feel free to share any better ideas)&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;Experience points:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits are below 99: today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits / 99&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits are 99 or more:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>today's visits / total visits in the past year&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1151,293 +1457,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;p style='padding-left: 2vw'&gt;今日访问量大于等于99的时候：过去一年的总访问量 / MAX&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>When I first made this homepage, it was just on a whim because I thought it</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d be fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nd somehow, a whole year has already gone by.
-Even now, there are still dozens of people visiting every day, and I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m truly grateful for that.
-ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
-Now, there</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s one small issue: the site</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s access statistics are powered by Cloudflare, which only keeps data for the past year.
-Because of that, the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xperience Points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (total visits) might start to fluctuate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sometimes increasing, sometimes decreasing.
-So I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ve adjusted how Experience Points and Level are calculated, as follows:
-&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;Now fixed as ?? (feel free to share any better ideas)&lt;/p&gt;
-&lt;p style='padding-left: 1vw'&gt;Experience points:&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;When today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits are below 99: today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits / 99&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;When today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits are 99 or more: total visits in the past year / MAX&lt;/p&gt;</t>
+      <t>&lt;p style='padding-left: 2vw'&gt;今日访问量大于等于99的时候：今日访问量 / 过去一年总访问量&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1974,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -2003,7 +2023,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
@@ -2096,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -2125,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1218521-9D69-4A3E-B14F-0C973E3B8EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB248506-F766-4980-9C42-B4299E80096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -1087,41 +1087,6 @@
   </si>
   <si>
     <r>
-      <t>興味本位と勢いで作ったこのホームページが一年も経ってしまいました。
-なんか毎日数十人くらい見に来ていただいてほんとにありがとうございます。
-ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
-余談ですが、訪問者数集計用のCloudflareは過去一年間分のデータしか遡れないらしくて、今まで増え続けてた経験値（総訪問者数）が増えたり減ったりするようになるかもしれません。
-そのため経験値とレベルの計算方法を変更しました。新しい計算方法は以下になります：
-&lt;p style='padding-left: 1vw'&gt;レベル：&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;固定で？？になります（ほかに何かいいアイデアがあれば遠慮なく教えください）&lt;/p&gt;
-&lt;p style='padding-left: 1vw'&gt;経験値：&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99未満の場合：本日の訪問者数 / 99&lt;/p&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：本日の訪問者数 / 過去一年間の総訪問者数&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>When I first made this homepage, it was just on a whim because I thought it</t>
     </r>
     <r>
@@ -1458,6 +1423,41 @@
         <scheme val="minor"/>
       </rPr>
       <t>&lt;p style='padding-left: 2vw'&gt;今日访问量大于等于99的时候：今日访问量 / 过去一年总访问量&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>興味本位と勢いで作ったこのホームページが一年も経ってしまいました。
+なんか毎日数十人くらい見に来ていただいてほんとにありがとうございます。
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+余談ですが、訪問者数集計用のCloudflareは過去一年間分のデータしか遡れないらしくて、今まで増え続けてた経験値（総訪問者数）が増えたり減ったりするようになるかもしれません。
+そのため経験値とレベルの計算方法を変更しました。新しい計算方法は以下になります：
+&lt;p style='padding-left: 1vw'&gt;レベル：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;固定で？？になります（ほかに何かいいアイデアがあれば遠慮なく教えてください）&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;経験値：&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99未満の場合：本日の訪問者数 / 99&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：本日の訪問者数 / 過去一年間の総訪問者数&lt;/p&gt;</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1872,9 +1872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1901,7 +1901,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
@@ -1994,7 +1994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -2023,7 +2023,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
@@ -2145,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB248506-F766-4980-9C42-B4299E80096E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A4670-4C62-4A48-A093-AD5D35D95E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,18 +866,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-10-07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C107冬コミに申し込んだ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Applied for Winter Comiket (C107)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Be Selected for Winter Comiket (C105)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -903,42 +891,6 @@
   </si>
   <si>
     <t>冬CM（C105）品書き(?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>提交了冬CM（C10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出摊申请</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1049,24 +1001,6 @@
 Impersonator's twitter ID: @egntm178769
 &lt;img src='/announcement/pseudo.png' alt='' style='height: 400px;'&gt;&lt;/img&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
-アクスタとかも作るかもしれません、受かったらまた考えます。_(:3」∠)_
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次不画玛丽，画的是狂猎的学生，望周知。
-除了插画本之外应该还会做立牌之类的周边，等抽中出摊了再说。_(:3」∠)_
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
-There may be also some goods like acryl stands, consider it if I were selected. _(:3」∠)_
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1459,6 +1393,75 @@
       </rPr>
       <t>&lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99を超えたの場合：本日の訪問者数 / 過去一年間の総訪問者数&lt;/p&gt;</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C107冬コミ当選しました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
+アクスタとかのグッズもある予定です。_(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>冬CM（C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出摊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+这次不画玛丽，画的是狂猎的学生，望周知。
+除了插画本之外应该还会做点立牌之类的小玩意。_(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be Selected for Winter Comiket (C107)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
+And there may be also some goods like acryl stands. _(:3」∠)_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1898,24 +1901,24 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
@@ -1923,7 +1926,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -1953,7 +1956,7 @@
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -2019,25 +2022,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
+      <c r="A2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>41</v>
+      <c r="A3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
@@ -2045,7 +2048,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -2086,7 +2089,7 @@
     </row>
     <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2118,7 +2121,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2141,25 +2144,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
+      <c r="A2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
+      <c r="A3" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
@@ -2167,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -2197,7 +2200,7 @@
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -2208,7 +2211,7 @@
     </row>
     <row r="8" spans="1:3" ht="141.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A4670-4C62-4A48-A093-AD5D35D95E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125A387F-C627-449F-B053-CA0116A74C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,56 +105,6 @@
   </si>
   <si>
     <r>
-      <t>点击跳转到&lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt; Web Catalog &lt;/a&gt;
-&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-要去C105出摊了。因为之后主要在画稿，所以本站的新功能开发会暂时缓一缓。
-通知的内容会随时更新。
-欢迎到时来玩。(｀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>´)b</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Click here to see &lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt; Web Catalog &lt;/a&gt;
 &lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 So, I'll attend Winter Comiket. Due to working on the manuscript, updates to the site's features will slow down for a while.
@@ -1404,61 +1354,114 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>冬CM（C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出摊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be Selected for Winter Comiket (C107)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+クリックで&lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Webカタログ&lt;/a&gt;に移動します。
 &lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
 アクスタとかのグッズもある予定です。_(:3」∠)_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>冬CM（C10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出摊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
 &lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 这次不画玛丽，画的是狂猎的学生，望周知。
 除了插画本之外应该还会做点立牌之类的小玩意。_(:3」∠)_</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Be Selected for Winter Comiket (C107)</t>
+    <r>
+      <t>点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
+&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+要去C105出摊了。因为之后主要在画稿，所以本站的新功能开发会暂时缓一缓。
+通知的内容会随时更新。
+欢迎到时来玩。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+Click here to see &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
 &lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
 And there may be also some goods like acryl stands. _(:3」∠)_</t>
@@ -1901,65 +1904,65 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -1978,7 +1981,7 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1998,8 +2001,8 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2023,65 +2026,65 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -2089,10 +2092,10 @@
     </row>
     <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -2100,10 +2103,10 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -2121,7 +2124,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2145,65 +2148,65 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -2211,10 +2214,10 @@
     </row>
     <row r="8" spans="1:3" ht="141.6" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -2222,10 +2225,10 @@
     </row>
     <row r="9" spans="1:3" ht="124.15" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125A387F-C627-449F-B053-CA0116A74C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A0E7C2-2DCB-4C5F-8315-78D46C94BBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1465,6 +1465,190 @@
 &lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
 Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
 And there may be also some goods like acryl stands. _(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冬コミ品書き</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬CM（C107）贩售物一览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winter Comiket (C107) menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the C107 menu：
+&lt;img src='/announcement/c107_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Click here to see the &lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;tweet&lt;/a&gt;.
+I also printed a lot this time so it may not been sold out too early.
+If you can't come, you can also buy these on online shop：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;The illust books are on &lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;The acrylic goods are on &lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>冬コミの品書きです：
+&lt;img src='/announcement/c10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+品書きのツイートは&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;こちら&lt;/a&gt;。
+今回の数もそれなりにあります、来る予定のある方はたぶん急がなくても大丈夫です。
+現地来れない方は通販でも買えます：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;イラスト本は&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;にて&lt;/li&gt;
+&lt;li&gt;アクリルグッズは&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贩售物一览：
+&lt;img src='/announcement/c10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+点击跳转到&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;推文&lt;/a&gt;。
+这次印的数量也不少，应该可以不用赶着来。
+来不了现场的xd可以在网上买：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;画册在&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Melonbooks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;亚克力小玩意在&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1876,11 +2060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1903,90 +2087,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>50</v>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="144" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1998,16 +2193,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="142.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="2"/>
@@ -2025,90 +2220,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="144" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2120,7 +2326,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2147,90 +2353,101 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="144" customHeight="1">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A0E7C2-2DCB-4C5F-8315-78D46C94BBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21260F21-7CBF-45D9-98BD-DAF5E9AC760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -1502,10 +1502,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Winter Comiket (C107) menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Here's the C107 menu：
 &lt;img src='/announcement/c107_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
@@ -1649,6 +1645,10 @@
       <t>&lt;/a&gt;&lt;/li&gt;
 &lt;li&gt;亚克力小玩意在&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winter Comiket (C107) Menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2062,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -2091,7 +2091,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>58</v>
@@ -2224,7 +2224,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>58</v>
@@ -2328,9 +2328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2354,10 +2354,10 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>58</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21260F21-7CBF-45D9-98BD-DAF5E9AC760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA703429-6C9A-4DF4-BF53-4D9E291A73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1649,6 +1649,164 @@
   </si>
   <si>
     <t>Winter Comiket (C107) Menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于本网站的更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About the Update of This Site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前改功能的时候出了点状况，现在网站刷新时似乎不会自动获取最新的版本了。
+要更新到新版本需要先手动清理一下网站的缓存再刷新页面。
+（不用清整个浏览器的缓存，只清除本网站的缓存就行）
+有追加新的功能或者是有一些比较大的改修的话我会写在更新日志里的，如果感兴趣的话还请麻烦各位手动更新一下。
+实在不好意思。＞＜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>There was a bit of issues when I modified the features earlier, and now it seems that the website no longer automatically fetches the latest version when refreshing.
+To update to the new version, you need to manually clear the site cache and then refresh the page.
+(You don</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t need to clear the entire browser cache, just the cache for this website is enough.)
+Whenever new features are added or major changes are made, I will write them in the Patch Notes. If you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re interested, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d really appreciate it if you could update manually.
+Sorry for the inconvenience. ＞＜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>このサイトのアップデートについて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかちょっとやらかしてて、現在このサイトは再起動しても自動的に最新のバージョンにはならない状況になっています。
+最新のバージョンにアップデートする場合は一旦手動でサイトのキャッシュを削除する必要があります。
+（ブラウザ全体のキャッシュではなく、このサイトのみのキャッシュを削除すれば大丈夫です）
+新機能の追加またはそれなりの改修があった場合はパッチノートに書きますので、もし気になりましたら各自で手動アップデートをお願いします。
+お手数をおかけします、申し訳ございません。＞＜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2060,11 +2218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2087,101 +2245,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="144" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="144" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="144" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2193,11 +2362,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EB5A59-D915-436D-B84E-1CE7D4DA204C}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2220,101 +2389,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="144" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="144" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="144" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="134.44999999999999" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="134.44999999999999" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2326,11 +2506,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2353,101 +2533,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="144" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="144" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" ht="144" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="144" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:3" ht="144" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="144" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="144" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="144" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:3" ht="144" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="144" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:3" ht="144" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="144" customHeight="1">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="144" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="141.6" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:3" ht="141.6" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="124.15" customHeight="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:3" ht="124.15" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA703429-6C9A-4DF4-BF53-4D9E291A73B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F79EB7D-A77D-41DC-A173-6F420892E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -970,8 +970,392 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>When I first made this homepage, it was just on a whim because I thought it</t>
+    <t>2025-11-07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C107冬コミ当選しました</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>冬CM（C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出摊</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Be Selected for Winter Comiket (C107)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+クリックで&lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Webカタログ&lt;/a&gt;に移動します。
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
+アクスタとかのグッズもある予定です。_(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+这次不画玛丽，画的是狂猎的学生，望周知。
+除了插画本之外应该还会做点立牌之类的小玩意。_(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
+&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+要去C105出摊了。因为之后主要在画稿，所以本站的新功能开发会暂时缓一缓。
+通知的内容会随时更新。
+欢迎到时来玩。(｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>´)b</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
+Click here to see &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
+&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
+And there may be also some goods like acryl stands. _(:3」∠)_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冬コミ品書き</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-12-22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬CM（C107）贩售物一览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the C107 menu：
+&lt;img src='/announcement/c107_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+Click here to see the &lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;tweet&lt;/a&gt;.
+I also printed a lot this time so it may not been sold out too early.
+If you can't come, you can also buy these on online shop：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;The illust books are on &lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;The acrylic goods are on &lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>冬コミの品書きです：
+&lt;img src='/announcement/c10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+品書きのツイートは&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;こちら&lt;/a&gt;。
+今回の数もそれなりにあります、来る予定のある方はたぶん急がなくても大丈夫です。
+現地来れない方は通販でも買えます：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;イラスト本は&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;にて&lt;/li&gt;
+&lt;li&gt;アクリルグッズは&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贩售物一览：
+&lt;img src='/announcement/c10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
+点击跳转到&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;推文&lt;/a&gt;。
+这次印的数量也不少，应该可以不用赶着来。
+来不了现场的xd可以在网上买：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;li&gt;画册在&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Melonbooks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;/li&gt;
+&lt;li&gt;亚克力小玩意在&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Winter Comiket (C107) Menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-01-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于本网站的更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>About the Update of This Site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前改功能的时候出了点状况，现在网站刷新时似乎不会自动获取最新的版本了。
+要更新到新版本需要先手动清理一下网站的缓存再刷新页面。
+（不用清整个浏览器的缓存，只清除本网站的缓存就行）
+有追加新的功能或者是有一些比较大的改修的话我会写在更新日志里的，如果感兴趣的话还请麻烦各位手动更新一下。
+实在不好意思。＞＜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>There was a bit of issues when I modified the features earlier, and now it seems that the website no longer automatically fetches the latest version when refreshing.
+To update to the new version, you need to manually clear the site cache and then refresh the page.
+(You don</t>
     </r>
     <r>
       <rPr>
@@ -991,48 +1375,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d be fun</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nd somehow, a whole year has already gone by.
-Even now, there are still dozens of people visiting every day, and I</t>
+      <t>t need to clear the entire browser cache, just the cache for this website is enough.)
+Whenever new features are added or major changes are made, I will write them in the Patch Notes. If you</t>
     </r>
     <r>
       <rPr>
@@ -1052,9 +1396,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>m truly grateful for that.
-ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
-Now, there</t>
+      <t>re interested, I</t>
     </r>
     <r>
       <rPr>
@@ -1074,205 +1416,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>s one small issue: the site</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s access statistics are powered by Cloudflare, which only keeps data for the past year.
-Because of that, the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>xperience Points</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (total visits) might start to fluctuate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sometimes increasing, sometimes decreasing.
-So I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ve adjusted how Experience Points and Level are calculated, as follows:
-&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;Now fixed as ?? (feel free to share any better ideas)&lt;/p&gt;
-&lt;p style='padding-left: 1vw'&gt;Experience points:&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;When today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits are below 99: today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits / 99&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;When today</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s visits are 99 or more:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>today's visits / total visits in the past year&lt;/p&gt;</t>
-    </r>
+      <t>d really appreciate it if you could update manually.
+Sorry for the inconvenience. ＞＜</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>このサイトのアップデートについて</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかちょっとやらかしてて、現在このサイトは再起動しても自動的に最新のバージョンにはならない状況になっています。
+最新のバージョンにアップデートする場合は一旦手動でサイトのキャッシュを削除する必要があります。
+（ブラウザ全体のキャッシュではなく、このサイトのみのキャッシュを削除すれば大丈夫です）
+新機能の追加またはそれなりの改修があった場合はパッチノートに書きますので、もし気になりましたら各自で手動アップデートをお願いします。
+お手数をおかけします、申し訳ございません。＞＜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1283,7 +1441,7 @@
 然后现在有个问题，现在统计网站访问量用的Cloudflare似乎只能查过去一年的数据，所以这个经验值（总访问量）之后可能会变得有增有减的。
 于是我修改了一下经验值和等级的计算方法，如下所示：
 &lt;p style='padding-left: 1vw'&gt;等级：&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;现在固定变成？？（有什么其他好的建议也可以告诉我）&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;现在固定变成【？？】（有什么其他好的建议也可以告诉我）&lt;/p&gt;
 &lt;p style='padding-left: 1vw'&gt;经验值：&lt;/p&gt;
 &lt;p style='padding-left: 2vw'&gt;今日访问量小于99的时候：今日访问量 / 99&lt;/p&gt;</t>
     </r>
@@ -1318,7 +1476,7 @@
 余談ですが、訪問者数集計用のCloudflareは過去一年間分のデータしか遡れないらしくて、今まで増え続けてた経験値（総訪問者数）が増えたり減ったりするようになるかもしれません。
 そのため経験値とレベルの計算方法を変更しました。新しい計算方法は以下になります：
 &lt;p style='padding-left: 1vw'&gt;レベル：&lt;/p&gt;
-&lt;p style='padding-left: 2vw'&gt;固定で？？になります（ほかに何かいいアイデアがあれば遠慮なく教えてください）&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;固定で【？？】になります（ほかに何かいいアイデアがあれば遠慮なく教えてください）&lt;/p&gt;
 &lt;p style='padding-left: 1vw'&gt;経験値：&lt;/p&gt;
 &lt;p style='padding-left: 2vw'&gt;本日の訪問者数が99未満の場合：本日の訪問者数 / 99&lt;/p&gt;</t>
     </r>
@@ -1346,344 +1504,190 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2025-11-07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C107冬コミ当選しました</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>冬CM（C10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出摊</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be Selected for Winter Comiket (C107)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
-クリックで&lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Webカタログ&lt;/a&gt;に移動します。
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-今回はマリーではなくワイルドハントの生徒たちのイラスト本を出します、ご了承ください。
-アクスタとかのグッズもある予定です。_(:3」∠)_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
-点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-这次不画玛丽，画的是狂猎的学生，望周知。
-除了插画本之外应该还会做点立牌之类的小玩意。_(:3」∠)_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>点击跳转到 &lt;a href='https://webcatalog-free.circle.ms/Circle/20014085' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
-&lt;img src='/announcement/c105_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-要去C105出摊了。因为之后主要在画稿，所以本站的新功能开发会暂时缓一缓。
-通知的内容会随时更新。
-欢迎到时来玩。(｀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ω</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>´)b</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>◎貴方のサークル「杏仁茶館」は、火曜日 東地区 “モ”ブロック－08a(東４ホール) に配置されました。
-Click here to see &lt;a href='https://webcatalog-free.circle.ms/Circle/22018096' target='_blank' style='color: #3987ff'&gt;Web Catalog&lt;/a&gt;
-&lt;img src='/announcement/c107_circle_cut.png' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-Please be attention that I will draw pictures of students in Wild Hunt Academy instead of Mari this time.
-And there may be also some goods like acryl stands. _(:3」∠)_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>冬コミ品書き</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025-12-22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬CM（C107）贩售物一览</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Here's the C107 menu：
-&lt;img src='/announcement/c107_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-Click here to see the &lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;tweet&lt;/a&gt;.
-I also printed a lot this time so it may not been sold out too early.
-If you can't come, you can also buy these on online shop：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;li&gt;The illust books are on &lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;Melonbooks&lt;/a&gt;&lt;/li&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;li&gt;The acrylic goods are on &lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>冬コミの品書きです：
-&lt;img src='/announcement/c10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-品書きのツイートは&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;こちら&lt;/a&gt;。
-今回の数もそれなりにあります、来る予定のある方はたぶん急がなくても大丈夫です。
-現地来れない方は通販でも買えます：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;li&gt;イラスト本は&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;メロンブックス&lt;/a&gt;にて&lt;/li&gt;
-&lt;li&gt;アクリルグッズは&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;にて&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>贩售物一览：
-&lt;img src='/announcement/c10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_shinagaki.jpg' alt='' style='height: 300px;'&gt;&lt;/img&gt;
-点击跳转到&lt;a href=https://x.com/ApricotLemonTea/status/2002720423524581563 target='_blank' style='color: #3987ff'&gt;推文&lt;/a&gt;。
-这次印的数量也不少，应该可以不用赶着来。
-来不了现场的xd可以在网上买：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;li&gt;画册在&lt;a href='https://www.melonbooks.co.jp/detail/detail.php?product_id=3398922' target='_blank' style='color: #3987ff'&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Melonbooks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;亚克力小玩意在&lt;a href='https://apricotlemontea.booth.pm/' target='_blank' style='color: #3987ff'&gt;BOOTH&lt;/a&gt;&lt;/li&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Winter Comiket (C107) Menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026-01-14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于本网站的更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>About the Update of This Site</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <r>
+      <t>When I first made this homepage, it was just on a whim because I thought it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d be fun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd somehow, a whole year has already gone by.
+Even now, there are still dozens of people visiting every day, and I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m truly grateful for that.
+ーーーーーーーーーーーーーーーーーーーーーーーーーーーー
+Now, there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s one small issue: the site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s access statistics are powered by Cloudflare, which only keeps data for the past year.
+Because of that, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xperience Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (total visits) might start to fluctuate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1691,47 +1695,12 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前改功能的时候出了点状况，现在网站刷新时似乎不会自动获取最新的版本了。
-要更新到新版本需要先手动清理一下网站的缓存再刷新页面。
-（不用清整个浏览器的缓存，只清除本网站的缓存就行）
-有追加新的功能或者是有一些比较大的改修的话我会写在更新日志里的，如果感兴趣的话还请麻烦各位手动更新一下。
-实在不好意思。＞＜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>There was a bit of issues when I modified the features earlier, and now it seems that the website no longer automatically fetches the latest version when refreshing.
-To update to the new version, you need to manually clear the site cache and then refresh the page.
-(You don</t>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sometimes increasing, sometimes decreasing.
+So I</t>
     </r>
     <r>
       <rPr>
@@ -1751,8 +1720,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>t need to clear the entire browser cache, just the cache for this website is enough.)
-Whenever new features are added or major changes are made, I will write them in the Patch Notes. If you</t>
+      <t>ve adjusted how Experience Points and Level are calculated, as follows:
+&lt;p style='padding-left: 1vw'&gt;Level:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;Now fixed as 【??】 (feel free to share any better ideas)&lt;/p&gt;
+&lt;p style='padding-left: 1vw'&gt;Experience points:&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
     </r>
     <r>
       <rPr>
@@ -1772,7 +1744,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>re interested, I</t>
+      <t>s visits are below 99: today</t>
     </r>
     <r>
       <rPr>
@@ -1792,21 +1764,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d really appreciate it if you could update manually.
-Sorry for the inconvenience. ＞＜</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>このサイトのアップデートについて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>なんかちょっとやらかしてて、現在このサイトは再起動しても自動的に最新のバージョンにはならない状況になっています。
-最新のバージョンにアップデートする場合は一旦手動でサイトのキャッシュを削除する必要があります。
-（ブラウザ全体のキャッシュではなく、このサイトのみのキャッシュを削除すれば大丈夫です）
-新機能の追加またはそれなりの改修があった場合はパッチノートに書きますので、もし気になりましたら各自で手動アップデートをお願いします。
-お手数をおかけします、申し訳ございません。＞＜</t>
+      <t>s visits / 99&lt;/p&gt;
+&lt;p style='padding-left: 2vw'&gt;When today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s visits are 99 or more:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>today's visits / total visits in the past year&lt;/p&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2220,9 +2220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2246,35 +2246,35 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
@@ -2282,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2365,8 +2365,8 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2390,35 +2390,35 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
@@ -2426,7 +2426,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2492,7 +2492,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -2508,9 +2508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2534,35 +2534,35 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="144" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" customHeight="1">
@@ -2570,7 +2570,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>

--- a/public/data/announcement.xlsx
+++ b/public/data/announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\9_projects\BA-style-homepage\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F79EB7D-A77D-41DC-A173-6F420892E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8BE85-DAD1-4708-9811-DF81A4B806F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -1344,93 +1344,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>之前改功能的时候出了点状况，现在网站刷新时似乎不会自动获取最新的版本了。
-要更新到新版本需要先手动清理一下网站的缓存再刷新页面。
-（不用清整个浏览器的缓存，只清除本网站的缓存就行）
-有追加新的功能或者是有一些比较大的改修的话我会写在更新日志里的，如果感兴趣的话还请麻烦各位手动更新一下。
-实在不好意思。＞＜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>There was a bit of issues when I modified the features earlier, and now it seems that the website no longer automatically fetches the latest version when refreshing.
-To update to the new version, you need to manually clear the site cache and then refresh the page.
-(You don</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t need to clear the entire browser cache, just the cache for this website is enough.)
-Whenever new features are added or major changes are made, I will write them in the Patch Notes. If you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>re interested, I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d really appreciate it if you could update manually.
-Sorry for the inconvenience. ＞＜</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>このサイトのアップデートについて</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>なんかちょっとやらかしてて、現在このサイトは再起動しても自動的に最新のバージョンにはならない状況になっています。
-最新のバージョンにアップデートする場合は一旦手動でサイトのキャッシュを削除する必要があります。
-（ブラウザ全体のキャッシュではなく、このサイトのみのキャッシュを削除すれば大丈夫です）
-新機能の追加またはそれなりの改修があった場合はパッチノートに書きますので、もし気になりましたら各自で手動アップデートをお願いします。
-お手数をおかけします、申し訳ございません。＞＜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1806,6 +1720,95 @@
         <scheme val="minor"/>
       </rPr>
       <t>today's visits / total visits in the past year&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんかちょっとやらかしてて、現在このサイトは再起動しても自動的に最新のバージョンにはならない状況になっています。
+最新のバージョンにアップデートする場合は一旦手動でサイトのキャッシュを削除する必要があります。
+（ブラウザ全体のキャッシュではなく、このサイトのみのキャッシュを削除すれば大丈夫です）
+新機能の追加またはそれなりの改修があった場合はパッチノートに書きますので、もし気になりましたら各自で手動アップデートをお願いします。
+とはいえそんなにアップデートすることもないかも。_(:3」∠)_
+お手数をおかけします、申し訳ございません。＞＜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前改功能的时候出了点状况，现在网站刷新时似乎不会自动获取最新的版本了。
+要更新到新版本需要先手动清理一下网站的缓存再刷新页面。
+（不用清整个浏览器的缓存，只清除本网站的缓存就行）
+有追加新的功能或者是有一些比较大的改修的话我会写在更新日志里的，如果感兴趣的话还请麻烦各位手动更新一下。
+话说现在好像也没啥好更新的。_(:3」∠)_
+实在不好意思。＞＜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>There was a bit of issues when I modified the features earlier, and now it seems that the website no longer automatically fetches the latest version when refreshing.
+To update to the new version, you need to manually clear the site cache and then refresh the page.
+(You don</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t need to clear the entire browser cache, just the cache for this website is enough.)
+Whenever new features are added or major changes are made, I will write them in the Patch Notes. If you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re interested, I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d really appreciate it if you could update manually.
+But there might be not so much features to update. _(:3」∠)_
+Sorry for the inconvenience. ＞＜</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2220,9 +2223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2246,10 +2249,10 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>61</v>
@@ -2282,7 +2285,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2365,8 +2368,8 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2393,7 +2396,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>61</v>
@@ -2426,7 +2429,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2508,9 +2511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96133E2C-5762-42BD-AAC7-6C9B4BA0CCEA}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2537,7 +2540,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>64</v>
@@ -2570,7 +2573,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
